--- a/BlokeeAutomation/Data/Config.xlsx
+++ b/BlokeeAutomation/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Hackaton\BlokeeAutomation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Hackaton\Code\BlokeeAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDF8022-8D99-4118-9A5C-58E2E0DB39D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2135D07-96F7-47FC-BC85-7A70481F940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1615,7 +1615,7 @@
   <dimension ref="A1:Z992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1762,7 +1762,7 @@
         <v>41</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
@@ -1770,7 +1770,7 @@
         <v>42</v>
       </c>
       <c r="B16">
-        <v>250</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1"/>

--- a/BlokeeAutomation/Data/Config.xlsx
+++ b/BlokeeAutomation/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Hackaton\Code\BlokeeAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2135D07-96F7-47FC-BC85-7A70481F940E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6467BD8-3CD9-4433-AD6D-9D6AA2DB3CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-2712" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Blokus_TurnCheck_RetryNo</t>
+  </si>
+  <si>
+    <t>Blokus_TurnCheck_MinimumUiMovesDuration</t>
   </si>
 </sst>
 </file>
@@ -1612,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z992"/>
+  <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1773,32 +1776,39 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17">
+        <v>6000</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
         <v>34</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2770,10 +2780,11 @@
     <row r="990" ht="14.25" customHeight="1"/>
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
+    <row r="993" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" xr:uid="{F6B3FD86-CEB4-4110-AD31-D88A090DEF8F}"/>
+    <hyperlink ref="B19" r:id="rId1" xr:uid="{F6B3FD86-CEB4-4110-AD31-D88A090DEF8F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/BlokeeAutomation/Data/Config.xlsx
+++ b/BlokeeAutomation/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UiPath\Projects\Hackaton\Code\BlokeeAutomation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\source\_HackatonIntern\BlokeeAutomation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6467BD8-3CD9-4433-AD6D-9D6AA2DB3CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A72AB3C-CB2F-41DE-9AF3-185AB31BE33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-2712" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46908" yWindow="-108" windowWidth="30000" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -548,12 +548,12 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.5859375" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.41015625" customWidth="1"/>
+    <col min="4" max="26" width="8.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -602,7 +602,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="28.7">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1618,15 +1618,15 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.41015625" customWidth="1"/>
+    <col min="4" max="26" width="8.703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1663,7 +1663,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="28.7">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>38</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
@@ -2798,12 +2798,12 @@
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.87890625" customWidth="1"/>
+    <col min="2" max="2" width="30.1171875" customWidth="1"/>
+    <col min="3" max="3" width="60.29296875" customWidth="1"/>
+    <col min="4" max="26" width="65.41015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
